--- a/data.xlsx
+++ b/data.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12648" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="manoj.o" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mohit.m" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Type</t>
   </si>
@@ -74,13 +75,22 @@
     <t>Pension</t>
   </si>
   <si>
+    <t>Bonus</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Saving</t>
+    <t>Investments</t>
   </si>
   <si>
     <t>Savings</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
   <si>
     <t>Rent</t>
@@ -128,13 +138,13 @@
     <t>Medicines</t>
   </si>
   <si>
-    <t>Doctor's visit</t>
+    <t>Doctor</t>
   </si>
   <si>
     <t>Groceries</t>
   </si>
   <si>
-    <t>Daily living</t>
+    <t>Daily-living</t>
   </si>
   <si>
     <t>Cleaning</t>
@@ -144,6 +154,27 @@
   </si>
   <si>
     <t>Salon</t>
+  </si>
+  <si>
+    <t>Child-care</t>
+  </si>
+  <si>
+    <t>Dining-out</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Concerts</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
   </si>
 </sst>
 </file>
@@ -180,8 +211,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -233,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -445,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,28 +489,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="7.7109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="8.85546875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="6.42578125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="5.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="4.7109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="5.140625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="4.42578125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="7.140625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="8.140625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" width="10.42578125"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" width="10.140625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="17.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.109375"/>
+    <col customWidth="1" max="14" min="3" width="10.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -532,6 +553,42 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -540,6 +597,42 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -548,6 +641,42 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
@@ -556,6 +685,42 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -564,77 +729,437 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -642,95 +1167,1055 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -744,28 +2229,1757 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.77734375" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="17.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.109375"/>
+    <col customWidth="1" max="14" min="3" width="10.77734375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>343434</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="7.7109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="8.85546875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="6.42578125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="5.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="4.7109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="5.140625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="4.42578125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="7.140625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="8.140625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" width="10.42578125"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" width="10.140625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="17.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.109375"/>
+    <col customWidth="1" max="14" min="3" width="10.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -819,6 +4033,42 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -827,6 +4077,42 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -835,6 +4121,42 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
@@ -843,6 +4165,42 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -851,80 +4209,437 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5000</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -932,95 +4647,1055 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2231,8 +2231,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.77734375" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -2294,40 +2294,40 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -2391,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>343434</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>0</v>
@@ -2426,40 +2426,40 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
@@ -2690,40 +2690,40 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2778,40 +2778,40 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2822,40 +2822,40 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2910,37 +2910,37 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2998,40 +2998,40 @@
         <v>26</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3042,40 +3042,40 @@
         <v>26</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3130,40 +3130,40 @@
         <v>34</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -3174,40 +3174,40 @@
         <v>34</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0</v>
@@ -3262,40 +3262,40 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3306,16 +3306,16 @@
         <v>38</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0</v>
@@ -3324,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>0</v>
@@ -3438,40 +3438,40 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3482,40 +3482,40 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3526,40 +3526,40 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3573,37 +3573,37 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3614,40 +3614,40 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3658,40 +3658,40 @@
         <v>42</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3702,40 +3702,40 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3749,28 +3749,28 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L35" s="1" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M36" s="1" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3922,40 +3922,40 @@
         <v>49</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
